--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H2">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N2">
         <v>0.123995</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.612627058553334</v>
+        <v>0.5508600905594444</v>
       </c>
       <c r="R2">
-        <v>23.51364352698</v>
+        <v>4.957740815035</v>
       </c>
       <c r="S2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="T2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>129.921204</v>
       </c>
       <c r="I3">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J3">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N3">
         <v>0.123995</v>
@@ -632,10 +632,10 @@
         <v>16.10957968998</v>
       </c>
       <c r="S3">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="T3">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>21.891734</v>
       </c>
       <c r="H4">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I4">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J4">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N4">
         <v>0.123995</v>
@@ -694,10 +694,10 @@
         <v>8.143396671990001</v>
       </c>
       <c r="S4">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="T4">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
     </row>
   </sheetData>
